--- a/biology/Médecine/Capsule_de_Glisson/Capsule_de_Glisson.xlsx
+++ b/biology/Médecine/Capsule_de_Glisson/Capsule_de_Glisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La capsule de Glisson, capsule fibreuse de Glisson ou capsule (ou tunique) fibreuse du foie dans la nomenclature anatomique (termes modernes et anciens), est une gaine de tissus conjonctifs denses qui adhère au foie et qui s’invagine dans le parenchyme hépatique permettant de déterminer des lobes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La description de Jean Cruveilhier de 1837 est toujours valable : 
 « On voit très bien cette membrane dans les régions du foie qui sont dépourvues de péritoine. Il devient ensuite facile de la démontrer dans tout le reste de la surface de cet organe. Elle constitue l'enveloppe immédiate du foie : adhérente à la tunique péritonéale par sa face externe, elle adhère, par sa face interne, au tissu du foie à l'aide de prolongements fibreux qui s'interposent aux granulations, et forment à chacune d'elles une enveloppe distincte.
@@ -522,7 +536,7 @@
 Cette membrane propre est d'ailleurs de nature fibreuse et nullement de nature musculeuse, ainsi que l'avait admis Glisson. 
 La membrane propre est véritablement la charpente du foie :
 elle fournit à cet organe une enveloppe générale ;
-elle envoie un prolongement canaliculé autour de la veine-porte, de l'artère hépatique et des canaux biliaires[1]… »
+elle envoie un prolongement canaliculé autour de la veine-porte, de l'artère hépatique et des canaux biliaires… »
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La capsule de Glisson est ainsi nommée en l'honneur du médecin anglais Francis Glisson qui l'a décrite pour la première fois en 1654 dans son Anatomia hepatis[2], tandis que c'est à Joseph-Pierre Pétrequin que l'on doit la première hypothèse à propos de sa fonction[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La capsule de Glisson est ainsi nommée en l'honneur du médecin anglais Francis Glisson qui l'a décrite pour la première fois en 1654 dans son Anatomia hepatis, tandis que c'est à Joseph-Pierre Pétrequin que l'on doit la première hypothèse à propos de sa fonction.
 </t>
         </is>
       </c>
